--- a/zero-ambient/src/main/resources/plugin/ambient/oob/menu/APP-90000-5300@zero.ssm.bg-SIDE.xlsx
+++ b/zero-ambient/src/main/resources/plugin/ambient/oob/menu/APP-90000-5300@zero.ssm.bg-SIDE.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-ambient/src/main/resources/plugin/ambient/oob/menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2307A90-354E-4C48-80D9-1FA2D21E9E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072B107-629C-E447-BC7E-956EAF997673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-69640" yWindow="3820" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-53180" yWindow="480" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -351,7 +351,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,14 +639,14 @@
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="43.6640625" style="3" customWidth="1"/>
